--- a/Documentation/Risk Register.xlsx
+++ b/Documentation/Risk Register.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Electronica Care\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\pet\petAdoption_SWPM\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{182B71C6-5A9A-4C00-94BF-FDC732F25C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Risk Tracking Template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="93">
   <si>
     <t>Date of last review:</t>
   </si>
@@ -253,12 +252,63 @@
   </si>
   <si>
     <t>Use README + screenshots + code comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudden team member withdrawal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task delays and increased pressure on remaining members </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cross-train members and document all work clearly </t>
+  </si>
+  <si>
+    <t>maintain updated tasks documentation for quick handover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environment differences between dev and deployment systems </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unexpected bugs during deployment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set up a staging environment that mirrors production </t>
+  </si>
+  <si>
+    <t>Test deployment regularly before final release</t>
+  </si>
+  <si>
+    <t>Lack of stakeholder feedback during development</t>
+  </si>
+  <si>
+    <t>Misaligned product with user needs</t>
+  </si>
+  <si>
+    <t>Schedule regular demos and feedback sessions with stakeholders</t>
+  </si>
+  <si>
+    <t>Use forms/surveys to gather structured feedback</t>
+  </si>
+  <si>
+    <t>Incomplete testing coverage</t>
+  </si>
+  <si>
+    <t>Undetected bugs and reliability issues</t>
+  </si>
+  <si>
+    <t>Create and maintain test cases for all features, use test coverage tools</t>
+  </si>
+  <si>
+    <t>Include test metrics in sprint review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marina </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -477,13 +527,13 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -580,23 +630,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -632,23 +665,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -824,11 +840,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -838,18 +854,20 @@
     <col min="4" max="4" width="35.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" customWidth="1"/>
     <col min="6" max="6" width="17.44140625" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="49.44140625" customWidth="1"/>
+    <col min="8" max="8" width="22.77734375" customWidth="1"/>
+    <col min="9" max="9" width="32.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -859,12 +877,12 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1063,7 +1081,7 @@
       <c r="D10" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="17" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="5" t="s">
@@ -1092,7 +1110,7 @@
       <c r="D11" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="17" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -1121,7 +1139,7 @@
       <c r="D12" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="17" t="s">
         <v>42</v>
       </c>
       <c r="F12" s="5" t="s">
@@ -1150,7 +1168,7 @@
       <c r="D13" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="17" t="s">
         <v>27</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -1179,7 +1197,7 @@
       <c r="D14" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="17" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="5" t="s">
@@ -1208,7 +1226,7 @@
       <c r="D15" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="5" t="s">
@@ -1237,7 +1255,7 @@
       <c r="D16" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="17" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="5" t="s">
@@ -1266,7 +1284,7 @@
       <c r="D17" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -1295,7 +1313,7 @@
       <c r="D18" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="17" t="s">
         <v>42</v>
       </c>
       <c r="F18" s="5" t="s">
@@ -1324,7 +1342,7 @@
       <c r="D19" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="5" t="s">
@@ -1353,7 +1371,7 @@
       <c r="D20" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="17" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="5" t="s">
@@ -1373,7 +1391,24 @@
       <c r="A21">
         <v>16</v>
       </c>
-      <c r="G21" s="6"/>
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1385,7 +1420,24 @@
       <c r="A22">
         <v>17</v>
       </c>
-      <c r="G22" s="6"/>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1397,7 +1449,24 @@
       <c r="A23">
         <v>18</v>
       </c>
-      <c r="G23" s="6"/>
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1409,12 +1478,24 @@
       <c r="A24" s="9">
         <v>19</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="10"/>
+      <c r="B24" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
